--- a/data/process_13/inputData.xlsx
+++ b/data/process_13/inputData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tspiinfotech-my.sharepoint.com/personal/asrivastava_tsp_tech/Documents/Documents/UiPath/BDG/data/process_13/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asrivastava\OneDrive - TSPI Infotech Pvt Ltd\Documents\UiPath\BDG\data\process_13\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
     <sheet name="Process 3" sheetId="8" r:id="rId8"/>
     <sheet name="Process 2" sheetId="5" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2262,7 +2262,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C2" sqref="C2:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2417,7 +2417,7 @@
         <v>71</v>
       </c>
       <c r="E8" s="12">
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="F8" s="50"/>
       <c r="G8" s="1"/>
@@ -6232,6 +6232,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FFE358E4433FD84A9A34523DAB00F7EB" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bb8f3f11fdb443e8b4b1a57d51f2ae48">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="627e885a-4408-46af-8180-28ca0c06a43e" xmlns:ns3="bbd7ad43-7622-4e03-bc1d-5f6f87a52367" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9878c85569a301255d672f426fac71ea" ns2:_="" ns3:_="">
     <xsd:import namespace="627e885a-4408-46af-8180-28ca0c06a43e"/>
@@ -6442,22 +6457,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C84DCB23-466D-4EDB-95EF-6AF2F90EC447}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="627e885a-4408-46af-8180-28ca0c06a43e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="bbd7ad43-7622-4e03-bc1d-5f6f87a52367"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E5D96F2-FF42-407F-9756-AD782ED49C05}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6E02152-A7A6-4163-B9A8-7E722AB35DEA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6474,29 +6499,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E5D96F2-FF42-407F-9756-AD782ED49C05}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C84DCB23-466D-4EDB-95EF-6AF2F90EC447}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="bbd7ad43-7622-4e03-bc1d-5f6f87a52367"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="627e885a-4408-46af-8180-28ca0c06a43e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/process_13/inputData.xlsx
+++ b/data/process_13/inputData.xlsx
@@ -406,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -440,6 +440,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -466,6 +469,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -831,7 +837,7 @@
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -840,7 +846,7 @@
       <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="1"/>
@@ -854,14 +860,14 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="16"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="5">
         <v>1235</v>
       </c>
-      <c r="F3" s="19"/>
+      <c r="F3" s="20"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -869,14 +875,14 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="16"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="13">
         <v>1000</v>
       </c>
-      <c r="F4" s="19"/>
+      <c r="F4" s="20"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -884,14 +890,14 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="16"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="5">
         <v>999</v>
       </c>
-      <c r="F5" s="19"/>
+      <c r="F5" s="20"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -899,14 +905,14 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="16"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="5">
         <v>1000</v>
       </c>
-      <c r="F6" s="19"/>
+      <c r="F6" s="20"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -914,14 +920,14 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="16"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="19"/>
+      <c r="F7" s="20"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -929,14 +935,14 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="16"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
       </c>
-      <c r="F8" s="19"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -944,14 +950,14 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="16"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="5">
         <v>1000</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="20"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -959,14 +965,14 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="16"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="5">
         <v>1030</v>
       </c>
-      <c r="F10" s="19"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -974,14 +980,14 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="16"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="5">
         <v>1030</v>
       </c>
-      <c r="F11" s="19"/>
+      <c r="F11" s="20"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -989,12 +995,12 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="16"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="19"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1002,14 +1008,14 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="16"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="19"/>
+      <c r="F13" s="20"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1017,14 +1023,14 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="16"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="19"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1032,12 +1038,12 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="16"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="19"/>
+      <c r="F15" s="20"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1045,12 +1051,12 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="16"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="3"/>
       <c r="E16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="19"/>
+      <c r="F16" s="20"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1058,12 +1064,12 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="16"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="3"/>
       <c r="E17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="19"/>
+      <c r="F17" s="20"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1071,14 +1077,14 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="17"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="19"/>
+      <c r="F18" s="20"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1117,14 +1123,14 @@
       <c r="B20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="16" t="s">
         <v>42</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="5"/>
-      <c r="F20" s="21"/>
+      <c r="F20" s="22"/>
       <c r="G20" s="4"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1132,14 +1138,14 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="16"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E21" s="5">
         <v>1</v>
       </c>
-      <c r="F21" s="22"/>
+      <c r="F21" s="23"/>
       <c r="G21" s="4"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1147,14 +1153,14 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="16"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E22" s="5">
         <v>1000194786</v>
       </c>
-      <c r="F22" s="23"/>
+      <c r="F22" s="24"/>
       <c r="G22" s="4"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1166,7 +1172,7 @@
       <c r="B23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="21" t="s">
         <v>47</v>
       </c>
       <c r="D23" s="12" t="s">
@@ -1175,7 +1181,7 @@
       <c r="E23" s="9">
         <v>44232</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="21" t="s">
         <v>49</v>
       </c>
       <c r="G23" s="4"/>
@@ -1185,14 +1191,14 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="20"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="12" t="s">
         <v>50</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="20"/>
+      <c r="F24" s="21"/>
       <c r="G24" s="4"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1222,25 +1228,15 @@
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H24">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I24">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>H2:H24</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>I2:I24</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1248,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1320,7 +1316,7 @@
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="15">
         <v>1235</v>
       </c>
       <c r="C2" s="14">
@@ -1332,7 +1328,7 @@
       <c r="E2" s="5">
         <v>1000</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="25" t="s">
         <v>21</v>
       </c>
       <c r="G2" s="5">
@@ -1370,22 +1366,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1600,26 +1597,26 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C84DCB23-466D-4EDB-95EF-6AF2F90EC447}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E5D96F2-FF42-407F-9756-AD782ED49C05}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="627e885a-4408-46af-8180-28ca0c06a43e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="bbd7ad43-7622-4e03-bc1d-5f6f87a52367"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E5D96F2-FF42-407F-9756-AD782ED49C05}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C84DCB23-466D-4EDB-95EF-6AF2F90EC447}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="bbd7ad43-7622-4e03-bc1d-5f6f87a52367"/>
+    <ds:schemaRef ds:uri="627e885a-4408-46af-8180-28ca0c06a43e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
